--- a/res/views/torneo/torneo-deportivo/Libro1.xlsx
+++ b/res/views/torneo/torneo-deportivo/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA7A746-8171-44A0-8D9D-395336CEDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DC91E-986A-4922-8422-AB347882F5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF0BFBA1-8538-4389-82E8-3EFB5B544F4F}"/>
+    <workbookView xWindow="1875" yWindow="5685" windowWidth="21600" windowHeight="11385" xr2:uid="{EF0BFBA1-8538-4389-82E8-3EFB5B544F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,25 +38,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>e_local</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>goles_local</t>
-  </si>
-  <si>
-    <t>goles_visitante</t>
-  </si>
-  <si>
-    <t>nombre_vis</t>
-  </si>
-  <si>
-    <t>fecha</t>
+    <t>Equipo1</t>
+  </si>
+  <si>
+    <t>Equipo 1</t>
+  </si>
+  <si>
+    <t>goles local</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>goles visitante</t>
+  </si>
+  <si>
+    <t>Equipo2</t>
+  </si>
+  <si>
+    <t>Equipo 2</t>
   </si>
 </sst>
 </file>
@@ -92,9 +92,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABB4A44-BD87-4D47-B54B-6CB2EF8EC7B9}">
-  <dimension ref="B1:G3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,52 +419,38 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>40858</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/res/views/torneo/torneo-deportivo/Libro1.xlsx
+++ b/res/views/torneo/torneo-deportivo/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DC91E-986A-4922-8422-AB347882F5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA01107-68BE-429E-9A7B-604A8D0B8624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="5685" windowWidth="21600" windowHeight="11385" xr2:uid="{EF0BFBA1-8538-4389-82E8-3EFB5B544F4F}"/>
+    <workbookView xWindow="1875" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{EF0BFBA1-8538-4389-82E8-3EFB5B544F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Equipo1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Equipo 1</t>
   </si>
   <si>
-    <t>goles local</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>goles visitante</t>
-  </si>
-  <si>
-    <t>Equipo2</t>
   </si>
   <si>
     <t>Equipo 2</t>
@@ -408,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABB4A44-BD87-4D47-B54B-6CB2EF8EC7B9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,38 +407,21 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
